--- a/data/trans_orig/P14C32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EFE48C-2D5C-4759-8C67-33A01A0864D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81AE5E6-4E07-4269-933F-F7FB685C22C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA6517A1-3655-4180-B3BA-761B84BD52B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46A7A7A1-78D9-4162-9DD6-01A9BD5B6F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>66,41%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>22,32%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,19 +140,19 @@
     <t>11,27%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,157 +164,160 @@
     <t>69,53%</t>
   </si>
   <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -729,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE213797-CBDA-4DE8-BFCC-F4E7CAED583D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734D76F1-3BED-4BFA-967F-EFCBAB781563}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1588,13 +1591,13 @@
         <v>6125</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1603,13 +1606,13 @@
         <v>8481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1668,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81AE5E6-4E07-4269-933F-F7FB685C22C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{052C5B32-43ED-4392-B49F-FFA5194BC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46A7A7A1-78D9-4162-9DD6-01A9BD5B6F7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75AE1FE3-1C56-49D5-844D-F0558CA8C066}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
-    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
+    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2016 (Tasa respuesta: 0,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>63,9%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,93%</t>
+    <t>43,38%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,25 +134,25 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>62,0%</t>
+    <t>61,45%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -173,19 +173,19 @@
     <t>69,13%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>69,23%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>30,47%</t>
@@ -197,16 +197,16 @@
     <t>18,49%</t>
   </si>
   <si>
-    <t>50,42%</t>
+    <t>50,06%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>0%</t>
@@ -218,13 +218,13 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>46,59%</t>
+    <t>46,34%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>42,02%</t>
+    <t>38,13%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,76 +248,76 @@
     <t>67,75%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>44,17%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>45,34%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734D76F1-3BED-4BFA-967F-EFCBAB781563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCC0ACD-E7A9-47A7-8DFA-2334A49A8C78}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
